--- a/R Scripts/Dataset/CRQ2_2_UNIQUE.xlsx
+++ b/R Scripts/Dataset/CRQ2_2_UNIQUE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{618FBC27-54D5-4CAE-9DAF-526FA87C19AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F1DE8E88-03DC-4912-9C88-181BAD474FB3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{618FBC27-54D5-4CAE-9DAF-526FA87C19AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B130626A-470C-4773-8F63-7384C96DB067}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{346CFB6A-9EFD-4CCC-A69D-50950BF6F658}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>ESFORÇO MÉDIO S _FW</t>
+    <t>AVERAGE_EFFORT_PER_MERGE_WO_FT</t>
   </si>
   <si>
-    <t>ESFORÇO MÉDIO C _FW</t>
+    <t>AVERAGE_EFFORT_PER_MERGE_WITH_FT</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
